--- a/public/Reporte_resumen_kardex.xlsx
+++ b/public/Reporte_resumen_kardex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>RESUMEN DEL KARDEX FISICO VALORADO</t>
   </si>
@@ -71,6 +71,12 @@
     <t>Paquete</t>
   </si>
   <si>
+    <t>COCA-COLA (BOTELLAS DE 2 LITROS)</t>
+  </si>
+  <si>
+    <t>Litro</t>
+  </si>
+  <si>
     <t>AGUA (BOTELLAS DE 500 ML)</t>
   </si>
   <si>
@@ -110,10 +116,13 @@
     <t>Manojo</t>
   </si>
   <si>
+    <t>SAL (1 Quintal)</t>
+  </si>
+  <si>
+    <t>Quintal</t>
+  </si>
+  <si>
     <t>HARINA (1 Quintal)</t>
-  </si>
-  <si>
-    <t>Quintal</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -558,10 +567,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,7 +792,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -792,27 +801,27 @@
         <v>19</v>
       </c>
       <c r="D11" s="3">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="E11" s="4">
-        <v>100.0</v>
+        <v>242.0</v>
       </c>
       <c r="F11" s="4">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G11" s="4">
-        <v>40.0</v>
+        <v>43.5</v>
       </c>
       <c r="H11" s="4">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="I11" s="4">
-        <v>60.0</v>
+        <v>198.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
@@ -821,155 +830,155 @@
         <v>21</v>
       </c>
       <c r="D12" s="3">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="E12" s="4">
-        <v>295.0</v>
+        <v>100.0</v>
       </c>
       <c r="F12" s="4">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G12" s="4">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="H12" s="4">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="I12" s="4">
-        <v>268.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3">
-        <v>52.0</v>
+        <v>13.0</v>
       </c>
       <c r="E13" s="4">
-        <v>810.25</v>
+        <v>295.0</v>
       </c>
       <c r="F13" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G13" s="4">
-        <v>34.286</v>
+        <v>27.0</v>
       </c>
       <c r="H13" s="4">
-        <v>49.0</v>
+        <v>11.0</v>
       </c>
       <c r="I13" s="4">
-        <v>775.964</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3">
-        <v>87.0</v>
+        <v>52.0</v>
       </c>
       <c r="E14" s="4">
-        <v>784.6</v>
+        <v>810.25</v>
       </c>
       <c r="F14" s="4">
-        <v>36.0</v>
+        <v>3.0</v>
       </c>
       <c r="G14" s="4">
-        <v>316.556</v>
+        <v>34.286</v>
       </c>
       <c r="H14" s="4">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="I14" s="4">
-        <v>468.044</v>
+        <v>775.964</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3">
-        <v>119.0</v>
+        <v>87.0</v>
       </c>
       <c r="E15" s="4">
-        <v>745.85</v>
+        <v>784.6</v>
       </c>
       <c r="F15" s="4">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="G15" s="4">
-        <v>219.114</v>
+        <v>316.556</v>
       </c>
       <c r="H15" s="4">
-        <v>90.0</v>
+        <v>51.0</v>
       </c>
       <c r="I15" s="4">
-        <v>526.736</v>
+        <v>468.044</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D16" s="3">
-        <v>25.0</v>
+        <v>137.0</v>
       </c>
       <c r="E16" s="4">
-        <v>255.0</v>
+        <v>927.42</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>36.0</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>262.313</v>
       </c>
       <c r="H16" s="4">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="I16" s="4">
-        <v>255.0</v>
+        <v>665.107</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="E17" s="4">
-        <v>207.0</v>
+        <v>255.0</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -978,27 +987,27 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="I17" s="4">
-        <v>207.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="E18" s="4">
-        <v>30.66</v>
+        <v>207.0</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1007,27 +1016,27 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="I18" s="4">
-        <v>30.66</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E19" s="4">
-        <v>87.0</v>
+        <v>30.66</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1036,15 +1045,15 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="I19" s="4">
-        <v>87.0</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>31</v>
@@ -1053,44 +1062,102 @@
         <v>32</v>
       </c>
       <c r="D20" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>350.0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>116.667</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>233.333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3">
         <v>7.0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E22" s="4">
         <v>725.0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F22" s="4">
         <v>1.0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G22" s="4">
         <v>103.571</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H22" s="4">
         <v>6.0</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I22" s="4">
         <v>621.429</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6">
-        <f>SUM(E7:E21)</f>
-        <v>6822.095</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <f>SUM(G7:G21)</f>
-        <v>1276.621</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6">
-        <f>SUM(I7:I21)</f>
-        <v>5545.474</v>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6">
+        <f>SUM(E7:E23)</f>
+        <v>7595.665</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <f>SUM(G7:G23)</f>
+        <v>1479.987</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <f>SUM(I7:I23)</f>
+        <v>6115.678</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1171,7 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
